--- a/config/forms/contact/outbreak-edit.xlsx
+++ b/config/forms/contact/outbreak-edit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-zwei\config\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AE465E-1C10-4BD8-BB5D-4FF5B7E772A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A4E120-EC20-4CBB-8BB5-B40203EF8BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="108">
   <si>
     <t>type</t>
   </si>
@@ -262,13 +262,103 @@
     <t>code</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>contact:PLACE_TYPE:edit</t>
   </si>
   <si>
     <t>Edit PLACE_NAME</t>
+  </si>
+  <si>
+    <t>outbreaks</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Unknown Outbreak</t>
+  </si>
+  <si>
+    <t>evd</t>
+  </si>
+  <si>
+    <t>Ebola Virus Disease</t>
+  </si>
+  <si>
+    <t>cholera</t>
+  </si>
+  <si>
+    <t>Cholera</t>
+  </si>
+  <si>
+    <t>measles</t>
+  </si>
+  <si>
+    <t>Measles</t>
+  </si>
+  <si>
+    <t>covid19</t>
+  </si>
+  <si>
+    <t>Covid-19</t>
+  </si>
+  <si>
+    <t>outbreak_status</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>select_one outbreaks</t>
+  </si>
+  <si>
+    <t>Outbreak</t>
+  </si>
+  <si>
+    <t>This will be used to tailor the case tools</t>
+  </si>
+  <si>
+    <t>jr:choice-name(${code},'${code}')</t>
+  </si>
+  <si>
+    <t>Additional information regarding this outbreak</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Location of the outbreak</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Date of outbreak declaration</t>
+  </si>
+  <si>
+    <t>select_one outbreak_status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>columns</t>
   </si>
 </sst>
 </file>
@@ -635,14 +725,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM952"/>
+  <dimension ref="A1:AM955"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Q18" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1303,13 +1393,13 @@
     </row>
     <row r="13" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>53</v>
@@ -1337,7 +1427,9 @@
       <c r="O13" s="18"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
+      <c r="R13" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
@@ -1362,13 +1454,13 @@
     </row>
     <row r="14" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>53</v>
@@ -1386,13 +1478,17 @@
       <c r="I14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="15"/>
+      <c r="P14" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
@@ -1422,10 +1518,10 @@
         <v>25</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>53</v>
@@ -1451,7 +1547,9 @@
       <c r="O15" s="18"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
+      <c r="R15" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
@@ -1476,39 +1574,41 @@
     </row>
     <row r="16" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>41</v>
+        <v>99</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
+      <c r="O16" s="18"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
+      <c r="R16" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
@@ -1531,46 +1631,112 @@
       <c r="AL16" s="15"/>
       <c r="AM16" s="15"/>
     </row>
-    <row r="17" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+    </row>
     <row r="18" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>23</v>
+        <v>106</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>23</v>
+        <v>55</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
+      <c r="O18" s="18"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
+      <c r="R18" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
+      <c r="T18" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
@@ -1593,27 +1759,37 @@
     </row>
     <row r="19" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="I19" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
-      <c r="P19" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
@@ -1638,76 +1814,42 @@
       <c r="AL19" s="15"/>
       <c r="AM19" s="15"/>
     </row>
-    <row r="20" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="15"/>
-    </row>
+    <row r="20" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="I21" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="L21" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
-      <c r="P21" s="15" t="s">
-        <v>51</v>
-      </c>
+      <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
@@ -1734,9 +1876,11 @@
     </row>
     <row r="22" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -1750,7 +1894,9 @@
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
+      <c r="P22" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
@@ -1775,12 +1921,60 @@
       <c r="AL22" s="15"/>
       <c r="AM22" s="15"/>
     </row>
-    <row r="23" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+    </row>
     <row r="24" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1794,7 +1988,9 @@
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="P24" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
@@ -1819,9 +2015,93 @@
       <c r="AL24" s="15"/>
       <c r="AM24" s="15"/>
     </row>
-    <row r="25" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+    </row>
+    <row r="26" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+    </row>
     <row r="28" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2747,6 +3027,9 @@
     <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -2755,10 +3038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D979"/>
+  <dimension ref="A1:D987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2814,14 +3097,84 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3789,6 +4142,14 @@
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -3799,7 +4160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3835,14 +4196,14 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="23" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-10-20 7-01</v>
+        <v>2023-10-26 11-23</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
